--- a/biology/Écologie/Système_d'information_sur_la_biodiversité/Système_d'information_sur_la_biodiversité.xlsx
+++ b/biology/Écologie/Système_d'information_sur_la_biodiversité/Système_d'information_sur_la_biodiversité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_sur_la_biodiversit%C3%A9</t>
+          <t>Système_d'information_sur_la_biodiversité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un système d’information sur la biodiversité est un système d'information, un ensemble organisé d'éléments permettant de regrouper, de classifier et de diffuser de l'information sur la biodiversité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_sur_la_biodiversit%C3%A9</t>
+          <t>Système_d'information_sur_la_biodiversité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les systèmes d’information sur la biodiversité constituent une application des SI aux données issues de l’étude de la biodiversité. Ils permettent donc une gestion contrôlée et sécurisée des flux d’information numérisés par les acteurs de la biodiversité, aux travers de possibilités de stockage, de classement, d’analyse, de vérification, de traitement, de partage et de diffusion des données recueillies et transformées.
 </t>
